--- a/rekap pembukuan pajak 2024/NPWP.xlsx
+++ b/rekap pembukuan pajak 2024/NPWP.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="264">
   <si>
     <t>HARNOYO</t>
   </si>
@@ -802,9 +802,6 @@
     <t>53.065.344.3-505.000</t>
   </si>
   <si>
-    <t>GATOT SUBROTO BLOK - NO. 142 RT. 001 RW. 005 BANDARJO, UMGARAN BARAT, KAB. SEMARANG, JAWA TENGAH</t>
-  </si>
-  <si>
     <t>0813 2587 1387</t>
   </si>
   <si>
@@ -818,6 +815,12 @@
   </si>
   <si>
     <t>LUWES SWALAYAN</t>
+  </si>
+  <si>
+    <t>GATOT SUBROTO BLOK - NO. 142 RT. 001 RW. 005 BANDARJO, UNGARAN BARAT, KAB. SEMARANG, JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>CV BENGAWAN MULTI TRADING</t>
   </si>
 </sst>
 </file>
@@ -1675,8 +1678,8 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2243,7 +2246,7 @@
         <v>213</v>
       </c>
       <c r="F16" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>41</v>
@@ -2443,7 +2446,7 @@
         <v>239</v>
       </c>
       <c r="F22" s="96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>41</v>
@@ -2566,10 +2569,10 @@
         <v>226</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F26" s="96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>41</v>
@@ -2610,7 +2613,7 @@
         <v>256</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>122</v>
@@ -3589,7 +3592,7 @@
         <v>213</v>
       </c>
       <c r="E16" s="95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1">
@@ -3691,7 +3694,7 @@
         <v>239</v>
       </c>
       <c r="E22" s="96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1">
@@ -3745,7 +3748,7 @@
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>91</v>
@@ -3757,12 +3760,12 @@
         <v>247</v>
       </c>
       <c r="E26" s="96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>253</v>
@@ -4047,7 +4050,7 @@
         <v>213</v>
       </c>
       <c r="E44" s="95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1">
@@ -4149,7 +4152,7 @@
         <v>239</v>
       </c>
       <c r="E50" s="96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1">
@@ -4203,7 +4206,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>91</v>
@@ -4215,12 +4218,12 @@
         <v>247</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>253</v>
